--- a/SpMVC_BlogDB/블로그 테이블명세 양식.xlsx
+++ b/SpMVC_BlogDB/블로그 테이블명세 양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_BlogDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\biz_workspace\biz_2020_자바&amp;파이썬1회\SpringMVC\SpMVC_BlogDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B66B0E1-DA29-4A81-ABE4-A8F30A4DBCD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="블로그 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -198,10 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(4000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,13 +208,17 @@
   </si>
   <si>
     <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(2000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -605,7 +606,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -917,11 +918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1688,13 +1689,13 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1714,7 +1715,7 @@
         <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1739,7 +1740,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1764,7 +1765,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1789,7 +1790,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1811,10 +1812,10 @@
         <v>37</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
